--- a/PHPCheatSheet.xlsx
+++ b/PHPCheatSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79E3AB-F197-4D75-ADB9-50107727041E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D2B22B-5BD4-48AE-9EBE-E11DA02172DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="16368" yWindow="4896" windowWidth="12960" windowHeight="6864" xr2:uid="{C6A52943-DCB7-43E2-B95F-EA5ADCEB4CA7}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Jeremy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0AB8D18B-4930-4AC9-AEE7-73888A6D4ECB}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{83793D7A-68D6-4207-92A5-BE6BE0CD48D6}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{1175B5EB-3299-43D9-8A87-C97294DE36BB}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -106,6 +106,94 @@
           </rPr>
           <t xml:space="preserve">
 define("PI", 3.141592);</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{C3993860-526C-478A-B3C9-3D003BCA813F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>//Losly typed params</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+function familyName($fname, $year) {
+    echo "$fname Refsnes. Born in $year &lt;br&gt;";
+}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//Strongly typed params
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>function addNumbers(int $a, int $b) {
+    return $a + $b;
+}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{6957008D-CE1E-4F70-9911-592BDD37FEF7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+round(4.96754,2)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{1A7E8C6A-6825-4ED8-A1FB-384B7263F426}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+date("F j, Y", strtotime($date))
+date("g:i a ", strtotime($date)</t>
         </r>
       </text>
     </comment>
@@ -114,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Switch case</t>
   </si>
@@ -126,6 +214,15 @@
   </si>
   <si>
     <t xml:space="preserve">Money / currency format </t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>Date time format</t>
   </si>
 </sst>
 </file>
@@ -502,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ECA5F8-F042-4E24-B311-977B95B34FDD}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,8 +631,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>